--- a/Template_Source_TC.xlsx
+++ b/Template_Source_TC.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c116caa5c414a86/FFVoile/Macro Exports Inscrits/XRR-SCORE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{0C8EC6F2-E577-4448-9265-137E3F77F206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AAE144-8CF6-40E2-B3D3-9F120B2FDC1B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{0C8EC6F2-E577-4448-9265-137E3F77F206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D26352-F34A-41B9-8FEF-3232F3EC68D0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{1C2E00CC-A2DF-4786-92DB-F539F5BE4D0A}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C2E00CC-A2DF-4786-92DB-F539F5BE4D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Code Pays</t>
   </si>
@@ -184,12 +184,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Mttwt9 (GitHub) # FFV 1377942G</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>non_binary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,28 +387,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,6 +425,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD97C260-7D3F-48A9-AF6B-B2A2D7CB0E15}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -759,8 +782,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +817,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="7"/>
@@ -803,50 +826,50 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="6"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -855,7 +878,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -873,13 +896,13 @@
       <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -900,7 +923,7 @@
       <c r="X2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="Z2" s="3" t="s">
@@ -908,11 +931,23 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="11">
+        <v>366</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -921,6 +956,9 @@
       </c>
       <c r="H4" t="s">
         <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -929,6 +967,9 @@
       </c>
       <c r="F5" t="s">
         <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
